--- a/Vinasa/Content/Files/MauHoiNghiQuocTe.xlsx
+++ b/Vinasa/Content/Files/MauHoiNghiQuocTe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E286A0D-3502-4F3A-BDA9-6B38A6196E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D79BF43-CCE0-48BE-9044-B45728784F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7BAE77C8-AB3F-4EB6-B745-16608436A818}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Email</t>
   </si>
@@ -79,27 +79,6 @@
   </si>
   <si>
     <t xml:space="preserve">Đơn vị chúng tôi là </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doanh nghiệp CNTT </t>
-  </si>
-  <si>
-    <t>Công ty FPT</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>0997585262</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>0445856956</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -475,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087217F9-77C5-4221-AED3-145998CA3974}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,57 +524,12 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{B13108E7-B3B7-474C-9968-68674A30777B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vinasa/Content/Files/MauHoiNghiQuocTe.xlsx
+++ b/Vinasa/Content/Files/MauHoiNghiQuocTe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\Vinasa\Vinasa\Content\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\fixcode\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D79BF43-CCE0-48BE-9044-B45728784F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FDDA4D-F4B2-4723-A059-00E72CD5F766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7BAE77C8-AB3F-4EB6-B745-16608436A818}"/>
   </bookViews>
@@ -57,28 +57,35 @@
     <t>Di động</t>
   </si>
   <si>
-    <t>Đăng ký bài phát biểu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng ký tham dự </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng ký gian hàng triển lãm </t>
-  </si>
-  <si>
-    <t>Đăng ký Business matching online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng ký Business matching offline </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng ký tài trợ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng ký quảng cáo </t>
-  </si>
-  <si>
     <t xml:space="preserve">Đơn vị chúng tôi là </t>
+  </si>
+  <si>
+    <t>Đăng ký tham dự
+(1-có, 0-không)</t>
+  </si>
+  <si>
+    <t>Đăng ký bài phát biểu
+(1-có, 0-không)</t>
+  </si>
+  <si>
+    <t>Đăng ký gian hàng triển lãm
+(1-có, 0-không)</t>
+  </si>
+  <si>
+    <t>Đăng ký Business matching online
+(1-có, 0-không)</t>
+  </si>
+  <si>
+    <t>Đăng ký Business matching offline
+(1-có, 0-không)</t>
+  </si>
+  <si>
+    <t>Đăng ký tài trợ
+(1-có, 0-không)</t>
+  </si>
+  <si>
+    <t>Đăng ký quảng cáo
+(1-có, 0-không)</t>
   </si>
 </sst>
 </file>
@@ -134,9 +141,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -454,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087217F9-77C5-4221-AED3-145998CA3974}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,64 +478,63 @@
     <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.77734375" customWidth="1"/>
-    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
